--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43606</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44049</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44049</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43971</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45001</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43416</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43450</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>43500</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>43509</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43550</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43584</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>43626</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>43626</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43630</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>43633</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43669</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43775</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43832</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43859</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43870</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43871</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43878</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43886</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44022</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44024</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44153</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44160</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44167</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44210</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44459</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44582</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44582</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44599</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44600</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44602</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44608</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44616</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44751</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44907</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44928</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44957</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44977</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45006</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45061</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45084</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45095</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45142</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43606</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44049</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44049</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43971</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45001</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43416</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43450</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>43500</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>43509</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43550</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43584</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>43626</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>43626</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43630</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>43633</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43669</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43775</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43832</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43859</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43870</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43871</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43878</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43886</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44022</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44024</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44153</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44160</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44167</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44210</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44459</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44582</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44582</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44599</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44600</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44602</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44608</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44616</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44751</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44907</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44928</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44957</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44977</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45006</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45061</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45084</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45095</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45142</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43606</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44049</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44049</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43971</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45001</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43416</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43450</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>43500</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>43509</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43550</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43584</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>43626</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>43626</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43630</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>43633</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43669</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43775</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43832</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43859</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43870</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43871</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43878</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43886</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44022</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44024</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44153</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44160</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44167</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44210</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44459</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44582</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44582</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44599</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44600</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44602</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44608</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44616</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44751</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44907</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44928</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44957</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44977</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45006</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45061</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45084</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45095</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45142</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43606</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44049</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44049</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43971</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45001</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43416</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43450</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>43500</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>43509</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43550</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43584</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>43626</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>43626</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43630</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>43633</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43669</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43775</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43832</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43859</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43870</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43871</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43878</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43886</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44022</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44024</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44153</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44160</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44167</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44210</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44459</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44582</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44582</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44599</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44600</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44602</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44608</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44616</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44751</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44907</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44928</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44957</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44977</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45006</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45061</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45084</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45095</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45142</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43606</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44049</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44049</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43971</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45001</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43416</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43450</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>43500</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>43509</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43550</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43584</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>43626</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>43626</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43630</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>43633</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43669</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43775</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43832</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43859</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43870</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43871</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43878</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43886</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44022</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44024</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44153</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44160</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44167</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44210</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44459</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44582</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44582</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44599</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44600</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44602</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44608</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44616</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44751</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44907</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44928</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44957</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44977</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45006</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45061</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45084</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45095</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45142</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43606</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44049</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44049</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43971</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45001</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43416</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43450</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>43500</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>43509</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43550</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43584</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>43626</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>43626</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43630</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>43633</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43669</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43775</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43832</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43859</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43870</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43871</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43878</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43886</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44022</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44024</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44153</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44160</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44167</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44210</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44459</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44582</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44582</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44599</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44600</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44602</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44608</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44616</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44751</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44907</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44928</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44957</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44977</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45006</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45061</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45084</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45095</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45142</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43606</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44049</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44049</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43971</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45001</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43416</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43450</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>43500</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>43509</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43550</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43584</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>43626</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>43626</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43630</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>43633</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43669</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43775</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43832</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43859</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43870</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43871</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43878</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43886</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44022</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44024</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44153</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44160</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44167</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44210</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44459</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44582</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44582</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44599</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44600</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44602</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44608</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44616</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44751</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44907</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44928</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44957</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44977</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45006</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45061</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45084</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45095</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45142</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43606</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44049</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44049</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43971</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45001</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43416</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43450</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>43500</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>43509</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43550</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43584</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>43626</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>43626</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43630</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>43633</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43669</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43775</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43832</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43859</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43870</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43871</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43878</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43886</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44022</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44024</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44153</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44160</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44167</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44210</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44459</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44582</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44582</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44599</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44600</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44602</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44608</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44616</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44751</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44907</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44928</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44957</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44977</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45006</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45061</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45084</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45095</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45142</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43606</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44049</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44049</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43971</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45001</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43416</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43450</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>43500</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>43509</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43550</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43584</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>43626</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>43626</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43630</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>43633</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43669</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43775</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43832</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43859</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43870</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43871</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43878</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43886</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44022</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44024</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44153</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44160</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44167</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44210</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44459</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44582</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44582</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44599</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44600</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44602</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44608</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44616</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44751</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44907</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44928</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44957</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44977</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45006</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45061</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45084</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45095</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45142</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43606</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -626,27 +626,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/artfynd/A 25385-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/artfynd/A 25385-2019.xlsx", "A 25385-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/kartor/A 25385-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/kartor/A 25385-2019.png", "A 25385-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomål/A 25385-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomål/A 25385-2019.docx", "A 25385-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomålsmail/A 25385-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomålsmail/A 25385-2019.docx", "A 25385-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsyn/A 25385-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsyn/A 25385-2019.docx", "A 25385-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsynsmail/A 25385-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsynsmail/A 25385-2019.docx", "A 25385-2019")</f>
         <v/>
       </c>
     </row>
@@ -660,7 +660,7 @@
         <v>44049</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -718,27 +718,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/artfynd/A 36315-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/artfynd/A 36315-2020.xlsx", "A 36315-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/kartor/A 36315-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/kartor/A 36315-2020.png", "A 36315-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomål/A 36315-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomål/A 36315-2020.docx", "A 36315-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomålsmail/A 36315-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomålsmail/A 36315-2020.docx", "A 36315-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsyn/A 36315-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsyn/A 36315-2020.docx", "A 36315-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsynsmail/A 36315-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsynsmail/A 36315-2020.docx", "A 36315-2020")</f>
         <v/>
       </c>
     </row>
@@ -752,7 +752,7 @@
         <v>43426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/artfynd/A 62597-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/artfynd/A 62597-2018.xlsx", "A 62597-2018")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/kartor/A 62597-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/kartor/A 62597-2018.png", "A 62597-2018")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomål/A 62597-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomål/A 62597-2018.docx", "A 62597-2018")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomålsmail/A 62597-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomålsmail/A 62597-2018.docx", "A 62597-2018")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsyn/A 62597-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsyn/A 62597-2018.docx", "A 62597-2018")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsynsmail/A 62597-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsynsmail/A 62597-2018.docx", "A 62597-2018")</f>
         <v/>
       </c>
     </row>
@@ -838,7 +838,7 @@
         <v>44049</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,27 +895,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/artfynd/A 36339-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/artfynd/A 36339-2020.xlsx", "A 36339-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/kartor/A 36339-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/kartor/A 36339-2020.png", "A 36339-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomål/A 36339-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomål/A 36339-2020.docx", "A 36339-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomålsmail/A 36339-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomålsmail/A 36339-2020.docx", "A 36339-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsyn/A 36339-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsyn/A 36339-2020.docx", "A 36339-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsynsmail/A 36339-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsynsmail/A 36339-2020.docx", "A 36339-2020")</f>
         <v/>
       </c>
     </row>
@@ -929,7 +929,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,27 +986,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/artfynd/A 36337-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/artfynd/A 36337-2020.xlsx", "A 36337-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/kartor/A 36337-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/kartor/A 36337-2020.png", "A 36337-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomål/A 36337-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomål/A 36337-2020.docx", "A 36337-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomålsmail/A 36337-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomålsmail/A 36337-2020.docx", "A 36337-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsyn/A 36337-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsyn/A 36337-2020.docx", "A 36337-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsynsmail/A 36337-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsynsmail/A 36337-2020.docx", "A 36337-2020")</f>
         <v/>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1072,27 +1072,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/artfynd/A 48666-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/artfynd/A 48666-2021.xlsx", "A 48666-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/kartor/A 48666-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/kartor/A 48666-2021.png", "A 48666-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomål/A 48666-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomål/A 48666-2021.docx", "A 48666-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomålsmail/A 48666-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomålsmail/A 48666-2021.docx", "A 48666-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsyn/A 48666-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsyn/A 48666-2021.docx", "A 48666-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsynsmail/A 48666-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsynsmail/A 48666-2021.docx", "A 48666-2021")</f>
         <v/>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
         <v>43971</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1157,27 +1157,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/artfynd/A 24203-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/artfynd/A 24203-2020.xlsx", "A 24203-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/kartor/A 24203-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/kartor/A 24203-2020.png", "A 24203-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomål/A 24203-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomål/A 24203-2020.docx", "A 24203-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomålsmail/A 24203-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomålsmail/A 24203-2020.docx", "A 24203-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsyn/A 24203-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsyn/A 24203-2020.docx", "A 24203-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsynsmail/A 24203-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsynsmail/A 24203-2020.docx", "A 24203-2020")</f>
         <v/>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,31 +1242,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/artfynd/A 53156-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/artfynd/A 53156-2021.xlsx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/kartor/A 53156-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/kartor/A 53156-2021.png", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/knärot/A 53156-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/knärot/A 53156-2021.png", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomål/A 53156-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomål/A 53156-2021.docx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomålsmail/A 53156-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomålsmail/A 53156-2021.docx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsyn/A 53156-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsyn/A 53156-2021.docx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsynsmail/A 53156-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsynsmail/A 53156-2021.docx", "A 53156-2021")</f>
         <v/>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
         <v>45001</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,27 +1331,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/artfynd/A 12892-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/artfynd/A 12892-2023.xlsx", "A 12892-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/kartor/A 12892-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/kartor/A 12892-2023.png", "A 12892-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomål/A 12892-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomål/A 12892-2023.docx", "A 12892-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomålsmail/A 12892-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/klagomålsmail/A 12892-2023.docx", "A 12892-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsyn/A 12892-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsyn/A 12892-2023.docx", "A 12892-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsynsmail/A 12892-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STENUNGSUND/tillsynsmail/A 12892-2023.docx", "A 12892-2023")</f>
         <v/>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
         <v>43361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43416</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43450</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>43500</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>43509</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43550</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43584</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>43626</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>43626</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43630</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>43633</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43669</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43775</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43832</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43859</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43870</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43871</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43878</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43886</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44022</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44024</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44153</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44160</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44167</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44210</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44459</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44582</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44582</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44599</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44600</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44602</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44608</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44616</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44751</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44907</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44928</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44957</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44977</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45006</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45061</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45084</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45095</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45142</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43606</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44049</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44049</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43971</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45001</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43416</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43450</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>43500</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>43509</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43550</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43584</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>43626</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>43626</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43630</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>43633</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43669</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43775</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43832</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43859</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43870</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43871</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43878</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43886</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44022</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44024</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44153</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44160</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44167</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44210</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44459</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44582</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44582</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44599</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44600</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44602</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44608</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44616</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44751</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44907</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44928</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44957</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44977</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45006</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45061</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45084</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45095</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45142</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43606</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44049</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44049</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43971</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45001</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43416</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43450</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>43500</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>43509</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43550</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43584</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>43626</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>43626</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43630</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>43633</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43669</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43775</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43832</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43859</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43870</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43871</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43878</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43886</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44022</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44024</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44153</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44160</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44167</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44210</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44459</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44582</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44582</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44599</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44600</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44602</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44608</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44616</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44751</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44907</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44928</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44957</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44977</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45006</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45061</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45084</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45095</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45142</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43606</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44049</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44049</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43971</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45001</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43416</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43450</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>43500</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>43509</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43550</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43584</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>43626</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>43626</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43630</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>43633</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43669</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43775</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43832</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43859</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43870</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43871</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43878</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43886</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44022</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44024</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44153</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44160</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44167</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44210</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44459</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44582</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44582</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44599</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44600</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44602</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44608</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44616</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44751</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44907</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44928</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44957</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44977</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45006</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45061</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45084</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45095</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45142</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43606</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44049</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44049</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43971</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45001</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43416</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43450</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>43500</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>43509</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43550</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43584</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>43626</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>43626</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43630</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>43633</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43669</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43775</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43832</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43859</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43870</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43871</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43878</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43886</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44022</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44024</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44153</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44160</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44167</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44210</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44459</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44582</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44582</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44599</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44600</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44602</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44608</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44616</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44751</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44907</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44928</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44957</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44977</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45006</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45061</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45084</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45095</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45142</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43606</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44049</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44049</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43971</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45001</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43416</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43450</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>43500</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>43509</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43550</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43584</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>43626</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>43626</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43630</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>43633</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43669</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43775</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43832</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43859</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43870</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43871</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43878</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43886</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44022</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44024</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44153</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44160</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44167</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44210</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44459</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44582</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44582</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44599</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44600</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44602</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44608</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44616</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44751</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44907</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44928</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44957</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44977</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45006</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45061</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45084</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45095</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45142</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43606</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44049</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44049</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43971</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45001</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43416</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43450</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>43500</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>43509</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43550</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43584</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>43626</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>43626</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43630</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>43633</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43669</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43775</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43832</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43859</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43870</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43871</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43878</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43886</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44022</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44024</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44153</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44160</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44167</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44210</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44459</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44582</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44582</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44599</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44600</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44602</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44608</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44616</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44751</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44907</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44928</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44957</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44977</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45006</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45061</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45084</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45095</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45142</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43606</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44049</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44049</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43971</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45001</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43416</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43450</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>43500</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>43509</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43550</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43584</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>43626</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>43626</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43630</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>43633</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43669</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43775</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43832</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43859</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43870</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43871</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43878</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43886</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44022</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44024</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44153</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44160</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44167</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44210</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44459</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44582</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44582</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44599</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44600</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44602</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44608</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44616</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44751</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44907</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44928</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44957</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44977</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45006</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45061</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45084</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45095</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45142</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43606</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44049</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44049</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44049</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43971</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45001</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43416</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43450</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>43500</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>43509</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43550</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43584</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>43626</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>43626</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43630</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>43633</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43669</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43775</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43832</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43859</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43870</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43871</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43878</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43886</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44019</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44022</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44024</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44153</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44160</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44162</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44167</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44210</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44459</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44582</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44582</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44599</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44600</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44602</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44608</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44616</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44751</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44907</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44928</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44957</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44977</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45006</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45061</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45084</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45095</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45095</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45142</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
